--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/30_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/30_11R22.xlsx
@@ -19,34 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="66">
-  <si>
-    <t>Signal_Value_79</t>
-  </si>
-  <si>
-    <t>Signal_Value_80</t>
-  </si>
-  <si>
-    <t>Signal_Value_81</t>
-  </si>
-  <si>
-    <t>Signal_Value_82</t>
-  </si>
-  <si>
-    <t>Signal_Value_83</t>
-  </si>
-  <si>
-    <t>Signal_Value_84</t>
-  </si>
-  <si>
-    <t>Signal_Value_85</t>
-  </si>
-  <si>
-    <t>Signal_Value_86</t>
-  </si>
-  <si>
-    <t>Signal_Value_87</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
   <si>
     <t>Signal_Value_88</t>
   </si>
@@ -574,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -689,586 +662,451 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.0376597191496582</v>
+      </c>
+      <c r="E2">
+        <v>0.02490210176935788</v>
+      </c>
+      <c r="F2">
+        <v>0.04671111803347081</v>
+      </c>
+      <c r="G2">
+        <v>0.1258637018519451</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.0346352473376515</v>
+      </c>
+      <c r="N2">
+        <v>0.02984791111158535</v>
+      </c>
+      <c r="O2">
+        <v>0.1329620298921292</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.07318294527284219</v>
+      </c>
+      <c r="S2">
+        <v>0.01170954601840651</v>
+      </c>
+      <c r="T2">
+        <v>0.191621291867296</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.08208746519639658</v>
+      </c>
+      <c r="W2">
+        <v>0.02816968053507866</v>
+      </c>
+      <c r="X2">
+        <v>0.0721972338310891</v>
+      </c>
+      <c r="Y2">
+        <v>0.01074269695836893</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0.0743382762860583</v>
+      </c>
+      <c r="AB2">
+        <v>0.02336903488866549</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.02655118732027428</v>
+      </c>
+      <c r="E3">
+        <v>0.04882711961408287</v>
+      </c>
+      <c r="F3">
+        <v>0.06996364863856595</v>
+      </c>
+      <c r="G3">
+        <v>0.1420875580400605</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.0002569723599591735</v>
+      </c>
+      <c r="K3">
+        <v>0.005184293316591004</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.02462549635179514</v>
+      </c>
+      <c r="N3">
+        <v>0.02853442144259253</v>
+      </c>
+      <c r="O3">
+        <v>0.1419110012314407</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.04295752458218077</v>
+      </c>
+      <c r="S3">
+        <v>0.01845527862031475</v>
+      </c>
+      <c r="T3">
+        <v>0.165905822620676</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.05850295650292159</v>
+      </c>
+      <c r="W3">
+        <v>0.05168736491125802</v>
+      </c>
+      <c r="X3">
+        <v>0.04214704395617296</v>
+      </c>
+      <c r="Y3">
+        <v>0.03421326380009322</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0.08323690422623126</v>
+      </c>
+      <c r="AB3">
+        <v>0.01070360745973292</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0.004248535005056301</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.1233280787320445</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.1817617282282293</v>
+      </c>
+      <c r="H4">
+        <v>0.0619699592537035</v>
+      </c>
+      <c r="I4">
+        <v>0.001192334171569131</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.01587061956589727</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.006606324914252338</v>
+      </c>
+      <c r="O4">
+        <v>0.1125757846903116</v>
+      </c>
+      <c r="P4">
+        <v>0.09473643874209446</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.01973558893324459</v>
+      </c>
+      <c r="T4">
+        <v>0.08130215802453304</v>
+      </c>
+      <c r="U4">
+        <v>0.05435302737204044</v>
+      </c>
+      <c r="V4">
+        <v>0.05550986529565387</v>
+      </c>
+      <c r="W4">
+        <v>0.0001731662947536332</v>
+      </c>
+      <c r="X4">
+        <v>0.08882708165366018</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0.04129443925002816</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.06076340487798416</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.1405329285986523</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.1987133490264933</v>
+      </c>
+      <c r="H5">
+        <v>0.03882777636099036</v>
+      </c>
+      <c r="I5">
+        <v>0.002973854763427979</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.01569778285735489</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.01481179887245417</v>
+      </c>
+      <c r="O5">
+        <v>0.1159092054826153</v>
+      </c>
+      <c r="P5">
+        <v>0.08225903414920377</v>
+      </c>
+      <c r="Q5">
+        <v>0.00423593555808258</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.01466709753257304</v>
+      </c>
+      <c r="T5">
+        <v>0.0894269847538379</v>
+      </c>
+      <c r="U5">
+        <v>0.04427369877751277</v>
+      </c>
+      <c r="V5">
+        <v>0.0561090678133709</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0.08171367638102749</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0.04282536948228078</v>
+      </c>
+      <c r="AA5">
+        <v>0.003834060602139246</v>
+      </c>
+      <c r="AB5">
+        <v>0.05318837898798318</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.01339556254618188</v>
-      </c>
-      <c r="M2">
-        <v>0.03580354991029035</v>
-      </c>
-      <c r="N2">
-        <v>0.07678607119123629</v>
-      </c>
-      <c r="O2">
-        <v>0.1072660205279442</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0.005952018973828889</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0.05719850407295976</v>
-      </c>
-      <c r="V2">
-        <v>0.02295081927270881</v>
-      </c>
-      <c r="W2">
-        <v>0.1612306897790239</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0.03682001935811269</v>
-      </c>
-      <c r="AA2">
-        <v>0.05492614229002482</v>
-      </c>
-      <c r="AB2">
-        <v>0.1719757006885846</v>
-      </c>
-      <c r="AC2">
-        <v>0.01078839417983216</v>
-      </c>
-      <c r="AD2">
-        <v>0.05842604783211498</v>
-      </c>
-      <c r="AE2">
-        <v>0.05203679616644637</v>
-      </c>
-      <c r="AF2">
-        <v>0.03467851626785574</v>
-      </c>
-      <c r="AG2">
-        <v>0.03657282883678646</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0.06258121870525894</v>
-      </c>
-      <c r="AJ2">
-        <v>0.0006110994008091101</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0.07043327325188499</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0.1513734770218871</v>
-      </c>
-      <c r="O3">
-        <v>0.03376758165726178</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0.011189963278938</v>
-      </c>
-      <c r="S3">
-        <v>0.01025654852942181</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0.01149578800263902</v>
-      </c>
-      <c r="V3">
-        <v>0.02673230169371726</v>
-      </c>
-      <c r="W3">
-        <v>0.1688475900498538</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0.01243018515183603</v>
-      </c>
-      <c r="AA3">
-        <v>0.04059718067299548</v>
-      </c>
-      <c r="AB3">
-        <v>0.1031970802498829</v>
-      </c>
-      <c r="AC3">
-        <v>0.01972016366855219</v>
-      </c>
-      <c r="AD3">
-        <v>0.02309042191550195</v>
-      </c>
-      <c r="AE3">
-        <v>0.1149852229389015</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0.09942548886148123</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0.1010328951401408</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0.001424837915103977</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0.09388225790065369</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0.1420679133840544</v>
-      </c>
-      <c r="Q4">
-        <v>0.005555451940145354</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.04197517972226385</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0.03535509172522318</v>
-      </c>
-      <c r="X4">
-        <v>0.1320192518351022</v>
-      </c>
-      <c r="Y4">
-        <v>0.09378795533414672</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0.001161553250747734</v>
-      </c>
-      <c r="AC4">
-        <v>0.1217931223029625</v>
-      </c>
-      <c r="AD4">
-        <v>0.0574895584743941</v>
-      </c>
-      <c r="AE4">
-        <v>0.06242304613929991</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0.1069113980313232</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0.03275621785483168</v>
-      </c>
-      <c r="AJ4">
-        <v>0.01484669020595838</v>
-      </c>
-      <c r="AK4">
-        <v>0.05797531189889297</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.01739209388684516</v>
-      </c>
-      <c r="E5">
-        <v>0.08292699929028143</v>
-      </c>
-      <c r="F5">
-        <v>0.06951972152744759</v>
-      </c>
-      <c r="G5">
-        <v>0.04062675066130009</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0.003983264800466442</v>
-      </c>
-      <c r="N5">
-        <v>0.07071750434540185</v>
-      </c>
-      <c r="O5">
-        <v>0.1028988708694959</v>
-      </c>
-      <c r="P5">
-        <v>0.0648448828815036</v>
-      </c>
-      <c r="Q5">
-        <v>0.09090704495707919</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0.009342930586954602</v>
-      </c>
-      <c r="T5">
-        <v>0.1114753326243984</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0.01786514194210568</v>
-      </c>
-      <c r="W5">
-        <v>0.02094496464466046</v>
-      </c>
-      <c r="X5">
-        <v>0.04641440600911714</v>
-      </c>
-      <c r="Y5">
-        <v>0.0149427355635791</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0.1176304774461035</v>
-      </c>
-      <c r="AB5">
-        <v>0.09139750139141284</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0.02616937657184687</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1279,126 +1117,99 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.07334131855663767</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.1978382678232338</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002197033028412835</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.006442666752723774</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.03588429631996103</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.06460918676665227</v>
+        <v>0.004032617448228163</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1509539294988324</v>
       </c>
       <c r="P6">
-        <v>0.09054365738162641</v>
+        <v>0.08399826873650443</v>
       </c>
       <c r="Q6">
-        <v>0.005104882389918577</v>
+        <v>0.005030005757234858</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.01989457935408998</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.07633201761863613</v>
       </c>
       <c r="U6">
-        <v>0.02669898367668975</v>
+        <v>0.0434749262667579</v>
       </c>
       <c r="V6">
-        <v>0.01862907311524694</v>
+        <v>0.06916830738977978</v>
       </c>
       <c r="W6">
-        <v>0.009248748103500496</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.1788145580980664</v>
+        <v>0.09929712481819576</v>
       </c>
       <c r="Y6">
-        <v>0.05204195713327261</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.04155272018563911</v>
       </c>
       <c r="AA6">
-        <v>0.00158462475684634</v>
+        <v>0.0257826098650806</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.06477931058005186</v>
       </c>
       <c r="AC6">
-        <v>0.1764208049135104</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.02474112736482985</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.1169535797368293</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.1040365833368858</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.003104080622455396</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.03414800201667413</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.04821657647321163</v>
-      </c>
-      <c r="AK6">
-        <v>0.04510357411378401</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
         <v>0</v>
       </c>
     </row>
@@ -1409,15 +1220,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1524,541 +1335,433 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.0376597191496582</v>
+      </c>
+      <c r="E2">
+        <v>0.06256182091901609</v>
+      </c>
+      <c r="F2">
+        <v>0.1092729389524869</v>
+      </c>
+      <c r="G2">
+        <v>0.235136640804432</v>
+      </c>
+      <c r="H2">
+        <v>0.235136640804432</v>
+      </c>
+      <c r="I2">
+        <v>0.235136640804432</v>
+      </c>
+      <c r="J2">
+        <v>0.235136640804432</v>
+      </c>
+      <c r="K2">
+        <v>0.235136640804432</v>
+      </c>
+      <c r="L2">
+        <v>0.235136640804432</v>
+      </c>
+      <c r="M2">
+        <v>0.2697718881420835</v>
+      </c>
+      <c r="N2">
+        <v>0.2996197992536688</v>
+      </c>
+      <c r="O2">
+        <v>0.4325818291457981</v>
+      </c>
+      <c r="P2">
+        <v>0.4325818291457981</v>
+      </c>
+      <c r="Q2">
+        <v>0.4325818291457981</v>
+      </c>
+      <c r="R2">
+        <v>0.5057647744186402</v>
+      </c>
+      <c r="S2">
+        <v>0.5174743204370467</v>
+      </c>
+      <c r="T2">
+        <v>0.7090956123043426</v>
+      </c>
+      <c r="U2">
+        <v>0.7090956123043426</v>
+      </c>
+      <c r="V2">
+        <v>0.7911830775007391</v>
+      </c>
+      <c r="W2">
+        <v>0.8193527580358178</v>
+      </c>
+      <c r="X2">
+        <v>0.8915499918669069</v>
+      </c>
+      <c r="Y2">
+        <v>0.9022926888252758</v>
+      </c>
+      <c r="Z2">
+        <v>0.9022926888252758</v>
+      </c>
+      <c r="AA2">
+        <v>0.9766309651113341</v>
+      </c>
+      <c r="AB2">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="AC2">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="AD2">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="AE2">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="AF2">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="AG2">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="AH2">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="AI2">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.02655118732027428</v>
+      </c>
+      <c r="E3">
+        <v>0.07537830693435715</v>
+      </c>
+      <c r="F3">
+        <v>0.1453419555729231</v>
+      </c>
+      <c r="G3">
+        <v>0.2874295136129836</v>
+      </c>
+      <c r="H3">
+        <v>0.2874295136129836</v>
+      </c>
+      <c r="I3">
+        <v>0.2874295136129836</v>
+      </c>
+      <c r="J3">
+        <v>0.2876864859729428</v>
+      </c>
+      <c r="K3">
+        <v>0.2928707792895338</v>
+      </c>
+      <c r="L3">
+        <v>0.2928707792895338</v>
+      </c>
+      <c r="M3">
+        <v>0.3174962756413289</v>
+      </c>
+      <c r="N3">
+        <v>0.3460306970839214</v>
+      </c>
+      <c r="O3">
+        <v>0.4879416983153621</v>
+      </c>
+      <c r="P3">
+        <v>0.4879416983153621</v>
+      </c>
+      <c r="Q3">
+        <v>0.4879416983153621</v>
+      </c>
+      <c r="R3">
+        <v>0.5308992228975429</v>
+      </c>
+      <c r="S3">
+        <v>0.5493545015178576</v>
+      </c>
+      <c r="T3">
+        <v>0.7152603241385336</v>
+      </c>
+      <c r="U3">
+        <v>0.7152603241385336</v>
+      </c>
+      <c r="V3">
+        <v>0.7737632806414552</v>
+      </c>
+      <c r="W3">
+        <v>0.8254506455527132</v>
+      </c>
+      <c r="X3">
+        <v>0.8675976895088862</v>
+      </c>
+      <c r="Y3">
+        <v>0.9018109533089794</v>
+      </c>
+      <c r="Z3">
+        <v>0.9018109533089794</v>
+      </c>
+      <c r="AA3">
+        <v>0.9850478575352106</v>
+      </c>
+      <c r="AB3">
+        <v>0.9957514649949436</v>
+      </c>
+      <c r="AC3">
+        <v>0.9957514649949436</v>
+      </c>
+      <c r="AD3">
+        <v>0.9957514649949436</v>
+      </c>
+      <c r="AE3">
+        <v>0.9957514649949436</v>
+      </c>
+      <c r="AF3">
+        <v>0.9957514649949436</v>
+      </c>
+      <c r="AG3">
+        <v>0.9957514649949436</v>
+      </c>
+      <c r="AH3">
+        <v>0.9957514649949436</v>
+      </c>
+      <c r="AI3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.1233280787320445</v>
+      </c>
+      <c r="F4">
+        <v>0.1233280787320445</v>
+      </c>
+      <c r="G4">
+        <v>0.3050898069602738</v>
+      </c>
+      <c r="H4">
+        <v>0.3670597662139773</v>
+      </c>
+      <c r="I4">
+        <v>0.3682521003855464</v>
+      </c>
+      <c r="J4">
+        <v>0.3682521003855464</v>
+      </c>
+      <c r="K4">
+        <v>0.3682521003855464</v>
+      </c>
+      <c r="L4">
+        <v>0.3841227199514436</v>
+      </c>
+      <c r="M4">
+        <v>0.3841227199514436</v>
+      </c>
+      <c r="N4">
+        <v>0.390729044865696</v>
+      </c>
+      <c r="O4">
+        <v>0.5033048295560076</v>
+      </c>
+      <c r="P4">
+        <v>0.5980412682981021</v>
+      </c>
+      <c r="Q4">
+        <v>0.5980412682981021</v>
+      </c>
+      <c r="R4">
+        <v>0.5980412682981021</v>
+      </c>
+      <c r="S4">
+        <v>0.6177768572313467</v>
+      </c>
+      <c r="T4">
+        <v>0.6990790152558797</v>
+      </c>
+      <c r="U4">
+        <v>0.7534320426279201</v>
+      </c>
+      <c r="V4">
+        <v>0.8089419079235739</v>
+      </c>
+      <c r="W4">
+        <v>0.8091150742183275</v>
+      </c>
+      <c r="X4">
+        <v>0.8979421558719877</v>
+      </c>
+      <c r="Y4">
+        <v>0.8979421558719877</v>
+      </c>
+      <c r="Z4">
+        <v>0.9392365951220158</v>
+      </c>
+      <c r="AA4">
+        <v>0.9392365951220158</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.01339556254618188</v>
-      </c>
-      <c r="M2">
-        <v>0.04919911245647223</v>
-      </c>
-      <c r="N2">
-        <v>0.1259851836477085</v>
-      </c>
-      <c r="O2">
-        <v>0.2332512041756527</v>
-      </c>
-      <c r="P2">
-        <v>0.2332512041756527</v>
-      </c>
-      <c r="Q2">
-        <v>0.2332512041756527</v>
-      </c>
-      <c r="R2">
-        <v>0.2332512041756527</v>
-      </c>
-      <c r="S2">
-        <v>0.2392032231494816</v>
-      </c>
-      <c r="T2">
-        <v>0.2392032231494816</v>
-      </c>
-      <c r="U2">
-        <v>0.2964017272224413</v>
-      </c>
-      <c r="V2">
-        <v>0.3193525464951502</v>
-      </c>
-      <c r="W2">
-        <v>0.480583236274174</v>
-      </c>
-      <c r="X2">
-        <v>0.480583236274174</v>
-      </c>
-      <c r="Y2">
-        <v>0.480583236274174</v>
-      </c>
-      <c r="Z2">
-        <v>0.5174032556322867</v>
-      </c>
-      <c r="AA2">
-        <v>0.5723293979223115</v>
-      </c>
-      <c r="AB2">
-        <v>0.7443050986108961</v>
-      </c>
-      <c r="AC2">
-        <v>0.7550934927907282</v>
-      </c>
-      <c r="AD2">
-        <v>0.8135195406228433</v>
-      </c>
-      <c r="AE2">
-        <v>0.8655563367892897</v>
-      </c>
-      <c r="AF2">
-        <v>0.9002348530571455</v>
-      </c>
-      <c r="AG2">
-        <v>0.9368076818939319</v>
-      </c>
-      <c r="AH2">
-        <v>0.9368076818939319</v>
-      </c>
-      <c r="AI2">
-        <v>0.9993889005991908</v>
-      </c>
-      <c r="AJ2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AK2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AL2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AM2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AN2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AO2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AP2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AQ2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AR2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AS2">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0.07043327325188499</v>
-      </c>
-      <c r="M3">
-        <v>0.07043327325188499</v>
-      </c>
-      <c r="N3">
-        <v>0.2218067502737721</v>
-      </c>
-      <c r="O3">
-        <v>0.2555743319310338</v>
-      </c>
-      <c r="P3">
-        <v>0.2555743319310338</v>
-      </c>
-      <c r="Q3">
-        <v>0.2555743319310338</v>
-      </c>
-      <c r="R3">
-        <v>0.2667642952099719</v>
-      </c>
-      <c r="S3">
-        <v>0.2770208437393937</v>
-      </c>
-      <c r="T3">
-        <v>0.2770208437393937</v>
-      </c>
-      <c r="U3">
-        <v>0.2885166317420327</v>
-      </c>
-      <c r="V3">
-        <v>0.3152489334357499</v>
-      </c>
-      <c r="W3">
-        <v>0.4840965234856037</v>
-      </c>
-      <c r="X3">
-        <v>0.4840965234856037</v>
-      </c>
-      <c r="Y3">
-        <v>0.4840965234856037</v>
-      </c>
-      <c r="Z3">
-        <v>0.4965267086374398</v>
-      </c>
-      <c r="AA3">
-        <v>0.5371238893104352</v>
-      </c>
-      <c r="AB3">
-        <v>0.6403209695603181</v>
-      </c>
-      <c r="AC3">
-        <v>0.6600411332288704</v>
-      </c>
-      <c r="AD3">
-        <v>0.6831315551443723</v>
-      </c>
-      <c r="AE3">
-        <v>0.7981167780832739</v>
-      </c>
-      <c r="AF3">
-        <v>0.7981167780832739</v>
-      </c>
-      <c r="AG3">
-        <v>0.897542266944755</v>
-      </c>
-      <c r="AH3">
-        <v>0.897542266944755</v>
-      </c>
-      <c r="AI3">
-        <v>0.9985751620848958</v>
-      </c>
-      <c r="AJ3">
-        <v>0.9985751620848958</v>
-      </c>
-      <c r="AK3">
-        <v>0.9985751620848958</v>
-      </c>
-      <c r="AL3">
-        <v>0.9985751620848958</v>
-      </c>
-      <c r="AM3">
-        <v>0.9985751620848958</v>
-      </c>
-      <c r="AN3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.1405329285986523</v>
+      </c>
+      <c r="F5">
+        <v>0.1405329285986523</v>
+      </c>
+      <c r="G5">
+        <v>0.3392462776251456</v>
+      </c>
+      <c r="H5">
+        <v>0.378074053986136</v>
+      </c>
+      <c r="I5">
+        <v>0.381047908749564</v>
+      </c>
+      <c r="J5">
+        <v>0.381047908749564</v>
+      </c>
+      <c r="K5">
+        <v>0.381047908749564</v>
+      </c>
+      <c r="L5">
+        <v>0.3967456916069189</v>
+      </c>
+      <c r="M5">
+        <v>0.3967456916069189</v>
+      </c>
+      <c r="N5">
+        <v>0.411557490479373</v>
+      </c>
+      <c r="O5">
+        <v>0.5274666959619884</v>
+      </c>
+      <c r="P5">
+        <v>0.6097257301111921</v>
+      </c>
+      <c r="Q5">
+        <v>0.6139616656692747</v>
+      </c>
+      <c r="R5">
+        <v>0.6139616656692747</v>
+      </c>
+      <c r="S5">
+        <v>0.6286287632018477</v>
+      </c>
+      <c r="T5">
+        <v>0.7180557479556856</v>
+      </c>
+      <c r="U5">
+        <v>0.7623294467331984</v>
+      </c>
+      <c r="V5">
+        <v>0.8184385145465692</v>
+      </c>
+      <c r="W5">
+        <v>0.8184385145465692</v>
+      </c>
+      <c r="X5">
+        <v>0.9001521909275967</v>
+      </c>
+      <c r="Y5">
+        <v>0.9001521909275967</v>
+      </c>
+      <c r="Z5">
+        <v>0.9429775604098775</v>
+      </c>
+      <c r="AA5">
+        <v>0.9468116210120167</v>
+      </c>
+      <c r="AB5">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AO3">
+      <c r="AC5">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AP3">
+      <c r="AD5">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AQ3">
+      <c r="AE5">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AR3">
+      <c r="AF5">
         <v>0.9999999999999998</v>
-      </c>
-      <c r="AS3">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0.09388225790065369</v>
-      </c>
-      <c r="O4">
-        <v>0.09388225790065369</v>
-      </c>
-      <c r="P4">
-        <v>0.235950171284708</v>
-      </c>
-      <c r="Q4">
-        <v>0.2415056232248534</v>
-      </c>
-      <c r="R4">
-        <v>0.2415056232248534</v>
-      </c>
-      <c r="S4">
-        <v>0.2415056232248534</v>
-      </c>
-      <c r="T4">
-        <v>0.2415056232248534</v>
-      </c>
-      <c r="U4">
-        <v>0.2834808029471172</v>
-      </c>
-      <c r="V4">
-        <v>0.2834808029471172</v>
-      </c>
-      <c r="W4">
-        <v>0.3188358946723404</v>
-      </c>
-      <c r="X4">
-        <v>0.4508551465074426</v>
-      </c>
-      <c r="Y4">
-        <v>0.5446431018415894</v>
-      </c>
-      <c r="Z4">
-        <v>0.5446431018415894</v>
-      </c>
-      <c r="AA4">
-        <v>0.5446431018415894</v>
-      </c>
-      <c r="AB4">
-        <v>0.5458046550923371</v>
-      </c>
-      <c r="AC4">
-        <v>0.6675977773952996</v>
-      </c>
-      <c r="AD4">
-        <v>0.7250873358696936</v>
-      </c>
-      <c r="AE4">
-        <v>0.7875103820089936</v>
-      </c>
-      <c r="AF4">
-        <v>0.7875103820089936</v>
-      </c>
-      <c r="AG4">
-        <v>0.8944217800403168</v>
-      </c>
-      <c r="AH4">
-        <v>0.8944217800403168</v>
-      </c>
-      <c r="AI4">
-        <v>0.9271779978951484</v>
-      </c>
-      <c r="AJ4">
-        <v>0.9420246881011068</v>
-      </c>
-      <c r="AK4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AL4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AM4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AN4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AO4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AP4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AQ4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AR4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AS4">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.01739209388684516</v>
-      </c>
-      <c r="E5">
-        <v>0.1003190931771266</v>
-      </c>
-      <c r="F5">
-        <v>0.1698388147045742</v>
-      </c>
-      <c r="G5">
-        <v>0.2104655653658743</v>
-      </c>
-      <c r="H5">
-        <v>0.2104655653658743</v>
-      </c>
-      <c r="I5">
-        <v>0.2104655653658743</v>
-      </c>
-      <c r="J5">
-        <v>0.2104655653658743</v>
-      </c>
-      <c r="K5">
-        <v>0.2104655653658743</v>
-      </c>
-      <c r="L5">
-        <v>0.2104655653658743</v>
-      </c>
-      <c r="M5">
-        <v>0.2144488301663407</v>
-      </c>
-      <c r="N5">
-        <v>0.2851663345117426</v>
-      </c>
-      <c r="O5">
-        <v>0.3880652053812385</v>
-      </c>
-      <c r="P5">
-        <v>0.452910088262742</v>
-      </c>
-      <c r="Q5">
-        <v>0.5438171332198212</v>
-      </c>
-      <c r="R5">
-        <v>0.5438171332198212</v>
-      </c>
-      <c r="S5">
-        <v>0.5531600638067757</v>
-      </c>
-      <c r="T5">
-        <v>0.6646353964311741</v>
-      </c>
-      <c r="U5">
-        <v>0.6646353964311741</v>
-      </c>
-      <c r="V5">
-        <v>0.6825005383732797</v>
-      </c>
-      <c r="W5">
-        <v>0.7034455030179402</v>
-      </c>
-      <c r="X5">
-        <v>0.7498599090270573</v>
-      </c>
-      <c r="Y5">
-        <v>0.7648026445906364</v>
-      </c>
-      <c r="Z5">
-        <v>0.7648026445906364</v>
-      </c>
-      <c r="AA5">
-        <v>0.88243312203674</v>
-      </c>
-      <c r="AB5">
-        <v>0.9738306234281529</v>
-      </c>
-      <c r="AC5">
-        <v>0.9738306234281529</v>
-      </c>
-      <c r="AD5">
-        <v>0.9738306234281529</v>
-      </c>
-      <c r="AE5">
-        <v>0.9738306234281529</v>
-      </c>
-      <c r="AF5">
-        <v>0.9738306234281529</v>
       </c>
       <c r="AG5">
         <v>0.9999999999999998</v>
@@ -2072,37 +1775,10 @@
       <c r="AJ5">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AK5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AL5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AM5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AN5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AO5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AP5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AQ5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AR5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AS5">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2114,126 +1790,99 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.07334131855663767</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.07334131855663767</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.2711795863798714</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2733766194082843</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2733766194082843</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.279819286161008</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.279819286161008</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3157035824809691</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3157035824809691</v>
       </c>
       <c r="N6">
-        <v>0.06460918676665227</v>
+        <v>0.3197361999291972</v>
       </c>
       <c r="O6">
-        <v>0.06460918676665227</v>
+        <v>0.4706901294280296</v>
       </c>
       <c r="P6">
-        <v>0.1551528441482787</v>
+        <v>0.554688398164534</v>
       </c>
       <c r="Q6">
-        <v>0.1602577265381973</v>
+        <v>0.5597184039217689</v>
       </c>
       <c r="R6">
-        <v>0.1602577265381973</v>
+        <v>0.5597184039217689</v>
       </c>
       <c r="S6">
-        <v>0.1602577265381973</v>
+        <v>0.5796129832758589</v>
       </c>
       <c r="T6">
-        <v>0.1602577265381973</v>
+        <v>0.655945000894495</v>
       </c>
       <c r="U6">
-        <v>0.186956710214887</v>
+        <v>0.6994199271612529</v>
       </c>
       <c r="V6">
-        <v>0.2055857833301339</v>
+        <v>0.7685882345510326</v>
       </c>
       <c r="W6">
-        <v>0.2148345314336344</v>
+        <v>0.7685882345510326</v>
       </c>
       <c r="X6">
-        <v>0.3936490895317009</v>
+        <v>0.8678853593692284</v>
       </c>
       <c r="Y6">
-        <v>0.4456910466649734</v>
+        <v>0.8678853593692284</v>
       </c>
       <c r="Z6">
-        <v>0.4456910466649734</v>
+        <v>0.9094380795548676</v>
       </c>
       <c r="AA6">
-        <v>0.4472756714218198</v>
+        <v>0.9352206894199482</v>
       </c>
       <c r="AB6">
-        <v>0.4472756714218198</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.6236964763353302</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.64843760370016</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.7653911834369893</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.7653911834369893</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.869427766773875</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.8725318473963304</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9066798494130045</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9548964258862161</v>
-      </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-      <c r="AM6">
-        <v>1</v>
-      </c>
-      <c r="AN6">
-        <v>1</v>
-      </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-      <c r="AP6">
-        <v>1</v>
-      </c>
-      <c r="AQ6">
-        <v>1</v>
-      </c>
-      <c r="AR6">
-        <v>1</v>
-      </c>
-      <c r="AS6">
         <v>1</v>
       </c>
     </row>
@@ -2252,66 +1901,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>0.01339556254618188</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5174032556322867</v>
+        <v>0.5057647744186402</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -2320,39 +1969,39 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5371238893104352</v>
+        <v>0.5308992228975429</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -2361,39 +2010,39 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5446431018415894</v>
+        <v>0.5033048295560076</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -2402,21 +2051,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -2425,16 +2074,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5438171332198212</v>
+        <v>0.5274666959619884</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -2443,39 +2092,39 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6236964763353302</v>
+        <v>0.554688398164534</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -2484,16 +2133,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2511,66 +2160,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>0.01339556254618188</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7443050986108961</v>
+        <v>0.7090956123043426</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -2579,39 +2228,39 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7981167780832739</v>
+        <v>0.7152603241385336</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -2620,36 +2269,36 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7250873358696936</v>
+        <v>0.7534320426279201</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2661,21 +2310,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -2684,16 +2333,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7034455030179402</v>
+        <v>0.7180557479556856</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -2702,36 +2351,36 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7653911834369893</v>
+        <v>0.7685882345510326</v>
       </c>
       <c r="G6">
         <v>19</v>
@@ -2743,16 +2392,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2770,66 +2419,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>0.01339556254618188</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8135195406228433</v>
+        <v>0.8193527580358178</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -2838,39 +2487,39 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.897542266944755</v>
+        <v>0.8254506455527132</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -2879,39 +2528,39 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8944217800403168</v>
+        <v>0.8089419079235739</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -2920,21 +2569,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -2943,16 +2592,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.88243312203674</v>
+        <v>0.8184385145465692</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -2961,36 +2610,36 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.869427766773875</v>
+        <v>0.8678853593692284</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -3002,16 +2651,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3029,66 +2678,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0.01339556254618188</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9002348530571455</v>
+        <v>0.9022926888252758</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -3097,39 +2746,39 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9985751620848958</v>
+        <v>0.9018109533089794</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -3138,36 +2787,36 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9271779978951484</v>
+        <v>0.9392365951220158</v>
       </c>
       <c r="G4">
         <v>23</v>
@@ -3179,21 +2828,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -3202,16 +2851,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9738306234281529</v>
+        <v>0.9001521909275967</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -3220,36 +2869,36 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9066798494130045</v>
+        <v>0.9094380795548676</v>
       </c>
       <c r="G6">
         <v>23</v>
@@ -3261,16 +2910,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
